--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$107</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="450">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -669,6 +666,9 @@
     <t>A name for this package. Typically what it would be listed as in a drug formulary or catalogue, inventory etc.</t>
   </si>
   <si>
+    <t>3 ml cartridge (glass) in a pre-filled pen</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.type</t>
   </si>
   <si>
@@ -876,6 +876,14 @@
     <t>The status within the lifecycle of this item. A high level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization or marketing status.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/publication-status"/&gt;
+    &lt;code value="active"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
@@ -895,6 +903,9 @@
     <t>The date at which the given status became applicable.</t>
   </si>
   <si>
+    <t>2015-02-07T13:28:17Z</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.containedItemQuantity</t>
   </si>
   <si>
@@ -908,6 +919,12 @@
     <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
   </si>
   <si>
+    <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
+  &lt;value value="3"/&gt;
+  &lt;unit value="ml"/&gt;
+&lt;/valueQuantity&gt;</t>
+  </si>
+  <si>
     <t>PackagedProductDefinition.description</t>
   </si>
   <si>
@@ -921,6 +938,9 @@
     <t>Textual description. Note that this is not the name of the package or product.</t>
   </si>
   <si>
+    <t>Type I colourless glass cartridge with a black plunger (bromobutyl rubber) and a flanged cap (aluminium) with inserted laminated sealing disks (bromobutyl rubber on the medicinal product side and polyisoprene on the outside) containing 3 ml of solution. Each cartridge is assembled into a disposable pen.</t>
+  </si>
+  <si>
     <t>Packaged Medicinal Product.description</t>
   </si>
   <si>
@@ -1000,9 +1020,6 @@
 </t>
   </si>
   <si>
-    <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated</t>
-  </si>
-  <si>
     <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
   </si>
   <si>
@@ -1027,7 +1044,7 @@
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
-    <t>If the drug product is supplied with another item such as a diluent or adjuvant</t>
+    <t>If the drug product is supplied with another item such as a diluent</t>
   </si>
   <si>
     <t>States whether a drug product is supplied with another item such as a diluent or adjuvant.</t>
@@ -1183,6 +1200,9 @@
     <t>The quantity of this level of packaging in the package that contains it. If specified, the outermost level is always 1.</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Package Item (Container).Package Item (Container) Quantity</t>
   </si>
   <si>
@@ -1256,9 +1276,6 @@
 </t>
   </si>
   <si>
-    <t>Shelf Life and storage information</t>
-  </si>
-  <si>
     <t>Shelf Life and storage information.</t>
   </si>
   <si>
@@ -1356,7 +1373,7 @@
     <t>PackagedProductDefinition.package.containedItem.item</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(ManufacturedItemDefinition|DeviceDefinition|PackagedProductDefinition|BiologicallyDerivedProduct|NutritionProduct)
+    <t xml:space="preserve">CodeableReference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi|DeviceDefinition|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/PackagedProductDefinition-uv-epi|BiologicallyDerivedProduct|NutritionProduct)
 </t>
   </si>
   <si>
@@ -1519,21 +1536,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1865,7 +1867,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>80</v>
       </c>
@@ -2079,7 +2081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>88</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>94</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>100</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>109</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>117</v>
       </c>
@@ -2617,7 +2619,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>125</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>133</v>
       </c>
@@ -2835,7 +2837,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>138</v>
       </c>
@@ -2957,7 +2959,7 @@
         <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>71</v>
@@ -3047,7 +3049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>148</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>154</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>159</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>169</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>178</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>187</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>194</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>200</v>
       </c>
@@ -3925,7 +3927,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>71</v>
@@ -3955,7 +3957,7 @@
         <v>71</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>71</v>
@@ -4017,7 +4019,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4031,7 +4033,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>71</v>
@@ -4043,10 +4045,10 @@
         <v>170</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4073,13 +4075,13 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -4097,7 +4099,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -4121,9 +4123,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4227,9 +4229,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4335,9 +4337,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4360,19 +4362,19 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>71</v>
@@ -4419,7 +4421,7 @@
         <v>143</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4440,12 +4442,12 @@
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>145</v>
@@ -4461,7 +4463,7 @@
         <v>73</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>71</v>
@@ -4470,19 +4472,19 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>71</v>
@@ -4531,7 +4533,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4552,12 +4554,12 @@
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4661,9 +4663,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4769,9 +4771,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4797,16 +4799,16 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>71</v>
@@ -4816,7 +4818,7 @@
         <v>71</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>71</v>
@@ -4855,7 +4857,7 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
@@ -4876,12 +4878,12 @@
         <v>71</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4907,13 +4909,13 @@
         <v>149</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4963,7 +4965,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4984,12 +4986,12 @@
         <v>71</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5015,14 +5017,14 @@
         <v>101</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>71</v>
@@ -5071,7 +5073,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -5092,12 +5094,12 @@
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5123,14 +5125,14 @@
         <v>149</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>71</v>
@@ -5179,7 +5181,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -5200,12 +5202,12 @@
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5228,19 +5230,19 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>71</v>
@@ -5289,7 +5291,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5310,12 +5312,12 @@
         <v>71</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5341,16 +5343,16 @@
         <v>149</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>71</v>
@@ -5399,7 +5401,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5420,12 +5422,12 @@
         <v>71</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5448,13 +5450,13 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5505,7 +5507,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5520,7 +5522,7 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
@@ -5531,7 +5533,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5545,7 +5547,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>82</v>
@@ -5557,10 +5559,10 @@
         <v>170</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5575,7 +5577,7 @@
         <v>71</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>71</v>
@@ -5590,10 +5592,10 @@
         <v>105</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>71</v>
@@ -5611,7 +5613,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5637,7 +5639,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5651,7 +5653,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>71</v>
@@ -5660,13 +5662,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5681,7 +5683,7 @@
         <v>71</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>71</v>
@@ -5717,7 +5719,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5743,7 +5745,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5757,7 +5759,7 @@
         <v>73</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>71</v>
@@ -5766,13 +5768,13 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5787,7 +5789,7 @@
         <v>71</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>71</v>
+        <v>291</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>71</v>
@@ -5823,7 +5825,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5849,7 +5851,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5863,7 +5865,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>71</v>
@@ -5872,13 +5874,13 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5893,7 +5895,7 @@
         <v>71</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>71</v>
+        <v>296</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>71</v>
@@ -5929,7 +5931,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5944,7 +5946,7 @@
         <v>93</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
@@ -5953,9 +5955,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5978,13 +5980,13 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6035,7 +6037,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -6050,7 +6052,7 @@
         <v>93</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
@@ -6059,9 +6061,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6165,9 +6167,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6273,13 +6275,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6301,10 +6303,10 @@
         <v>127</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>130</v>
@@ -6359,7 +6361,7 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
@@ -6383,9 +6385,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6411,10 +6413,10 @@
         <v>170</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6441,13 +6443,13 @@
         <v>71</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>71</v>
@@ -6465,7 +6467,7 @@
         <v>71</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6480,7 +6482,7 @@
         <v>93</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>71</v>
@@ -6489,9 +6491,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6517,10 +6519,10 @@
         <v>170</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6547,13 +6549,13 @@
         <v>71</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>71</v>
@@ -6571,7 +6573,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6595,9 +6597,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6620,13 +6622,13 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6677,7 +6679,7 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6692,7 +6694,7 @@
         <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>71</v>
@@ -6701,9 +6703,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6729,10 +6731,10 @@
         <v>170</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6759,31 +6761,31 @@
         <v>71</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE47" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6809,7 +6811,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6823,7 +6825,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>71</v>
@@ -6832,13 +6834,13 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6846,7 +6848,7 @@
         <v>71</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>71</v>
@@ -6891,7 +6893,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6915,9 +6917,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6940,13 +6942,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6997,7 +6999,7 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
@@ -7012,7 +7014,7 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
@@ -7021,9 +7023,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7046,13 +7048,13 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7103,7 +7105,7 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
@@ -7127,9 +7129,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7152,13 +7154,13 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7209,7 +7211,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -7224,7 +7226,7 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>71</v>
@@ -7233,9 +7235,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7339,9 +7341,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7447,13 +7449,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7475,10 +7477,10 @@
         <v>127</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>130</v>
@@ -7533,7 +7535,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7557,9 +7559,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7585,10 +7587,10 @@
         <v>139</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7637,7 +7639,7 @@
         <v>143</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7652,7 +7654,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>71</v>
@@ -7663,7 +7665,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>145</v>
@@ -7679,7 +7681,7 @@
         <v>73</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>71</v>
@@ -7745,7 +7747,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7760,7 +7762,7 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>71</v>
@@ -7769,9 +7771,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7875,9 +7877,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7983,9 +7985,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8091,9 +8093,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8199,9 +8201,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8309,9 +8311,9 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8417,9 +8419,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8523,9 +8525,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8633,7 +8635,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8647,7 +8649,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>71</v>
@@ -8659,10 +8661,10 @@
         <v>170</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8689,13 +8691,13 @@
         <v>71</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>71</v>
@@ -8713,7 +8715,7 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
@@ -8728,7 +8730,7 @@
         <v>93</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>71</v>
@@ -8737,9 +8739,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8843,9 +8845,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8951,9 +8953,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8976,19 +8978,19 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>71</v>
@@ -9035,7 +9037,7 @@
         <v>143</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
@@ -9056,12 +9058,12 @@
         <v>71</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>145</v>
@@ -9077,7 +9079,7 @@
         <v>73</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>71</v>
@@ -9086,19 +9088,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>71</v>
@@ -9147,7 +9149,7 @@
         <v>71</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>72</v>
@@ -9168,12 +9170,12 @@
         <v>71</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9277,9 +9279,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9385,9 +9387,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9413,16 +9415,16 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>71</v>
@@ -9432,7 +9434,7 @@
         <v>71</v>
       </c>
       <c r="R72" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>71</v>
@@ -9471,7 +9473,7 @@
         <v>71</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>72</v>
@@ -9492,12 +9494,12 @@
         <v>71</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9523,13 +9525,13 @@
         <v>149</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9579,7 +9581,7 @@
         <v>71</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>72</v>
@@ -9600,12 +9602,12 @@
         <v>71</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9631,14 +9633,14 @@
         <v>101</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>71</v>
@@ -9687,7 +9689,7 @@
         <v>71</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>72</v>
@@ -9708,12 +9710,12 @@
         <v>71</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9739,14 +9741,14 @@
         <v>149</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>71</v>
@@ -9795,7 +9797,7 @@
         <v>71</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>72</v>
@@ -9816,12 +9818,12 @@
         <v>71</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9844,19 +9846,19 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>71</v>
@@ -9905,7 +9907,7 @@
         <v>71</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>72</v>
@@ -9926,12 +9928,12 @@
         <v>71</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9957,16 +9959,16 @@
         <v>149</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>71</v>
@@ -10015,7 +10017,7 @@
         <v>71</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>72</v>
@@ -10036,12 +10038,12 @@
         <v>71</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10055,7 +10057,7 @@
         <v>81</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>71</v>
@@ -10064,13 +10066,13 @@
         <v>82</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -10085,7 +10087,7 @@
         <v>71</v>
       </c>
       <c r="S78" t="s" s="2">
-        <v>71</v>
+        <v>381</v>
       </c>
       <c r="T78" t="s" s="2">
         <v>71</v>
@@ -10121,7 +10123,7 @@
         <v>71</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>72</v>
@@ -10136,7 +10138,7 @@
         <v>93</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>71</v>
@@ -10147,7 +10149,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10161,7 +10163,7 @@
         <v>73</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>71</v>
@@ -10173,10 +10175,10 @@
         <v>170</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10203,13 +10205,13 @@
         <v>71</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>71</v>
@@ -10227,7 +10229,7 @@
         <v>71</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>72</v>
@@ -10242,7 +10244,7 @@
         <v>93</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>71</v>
@@ -10251,9 +10253,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10357,9 +10359,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10465,9 +10467,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10490,19 +10492,19 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>71</v>
@@ -10549,7 +10551,7 @@
         <v>143</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>72</v>
@@ -10570,12 +10572,12 @@
         <v>71</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>145</v>
@@ -10591,7 +10593,7 @@
         <v>73</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>71</v>
@@ -10600,19 +10602,19 @@
         <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>71</v>
@@ -10661,7 +10663,7 @@
         <v>71</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>72</v>
@@ -10682,12 +10684,12 @@
         <v>71</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10791,9 +10793,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10899,9 +10901,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10927,16 +10929,16 @@
         <v>95</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>71</v>
@@ -10946,7 +10948,7 @@
         <v>71</v>
       </c>
       <c r="R86" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>71</v>
@@ -10985,7 +10987,7 @@
         <v>71</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>72</v>
@@ -11006,12 +11008,12 @@
         <v>71</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11037,13 +11039,13 @@
         <v>149</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11093,7 +11095,7 @@
         <v>71</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>72</v>
@@ -11114,12 +11116,12 @@
         <v>71</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11145,14 +11147,14 @@
         <v>101</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>71</v>
@@ -11201,7 +11203,7 @@
         <v>71</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>72</v>
@@ -11222,12 +11224,12 @@
         <v>71</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11253,14 +11255,14 @@
         <v>149</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>71</v>
@@ -11309,7 +11311,7 @@
         <v>71</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>72</v>
@@ -11330,12 +11332,12 @@
         <v>71</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11358,19 +11360,19 @@
         <v>82</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>71</v>
@@ -11419,7 +11421,7 @@
         <v>71</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>72</v>
@@ -11440,12 +11442,12 @@
         <v>71</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11471,16 +11473,16 @@
         <v>149</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>71</v>
@@ -11529,7 +11531,7 @@
         <v>71</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>72</v>
@@ -11550,12 +11552,12 @@
         <v>71</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11581,10 +11583,10 @@
         <v>170</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11611,13 +11613,13 @@
         <v>71</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>71</v>
@@ -11635,7 +11637,7 @@
         <v>71</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>72</v>
@@ -11650,7 +11652,7 @@
         <v>93</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>71</v>
@@ -11659,9 +11661,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11684,13 +11686,13 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11741,7 +11743,7 @@
         <v>71</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>72</v>
@@ -11756,7 +11758,7 @@
         <v>93</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>71</v>
@@ -11765,9 +11767,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11793,10 +11795,10 @@
         <v>201</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11847,7 +11849,7 @@
         <v>71</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>72</v>
@@ -11862,7 +11864,7 @@
         <v>93</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>71</v>
@@ -11871,9 +11873,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11896,13 +11898,13 @@
         <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11953,7 +11955,7 @@
         <v>71</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>72</v>
@@ -11968,7 +11970,7 @@
         <v>93</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>71</v>
@@ -11977,9 +11979,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12083,9 +12085,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12191,13 +12193,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12219,10 +12221,10 @@
         <v>127</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>130</v>
@@ -12277,7 +12279,7 @@
         <v>71</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>72</v>
@@ -12301,9 +12303,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12329,10 +12331,10 @@
         <v>170</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12359,31 +12361,31 @@
         <v>71</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Y99" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE99" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>81</v>
@@ -12398,7 +12400,7 @@
         <v>93</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>71</v>
@@ -12407,9 +12409,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12432,13 +12434,13 @@
         <v>82</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12489,7 +12491,7 @@
         <v>71</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>72</v>
@@ -12504,7 +12506,7 @@
         <v>93</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>71</v>
@@ -12513,9 +12515,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12538,13 +12540,13 @@
         <v>82</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12595,7 +12597,7 @@
         <v>71</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>72</v>
@@ -12610,7 +12612,7 @@
         <v>93</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>71</v>
@@ -12619,9 +12621,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12725,9 +12727,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12833,13 +12835,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12861,10 +12863,10 @@
         <v>127</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M104" t="s" s="2">
         <v>130</v>
@@ -12919,7 +12921,7 @@
         <v>71</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>72</v>
@@ -12943,9 +12945,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12968,13 +12970,13 @@
         <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -13025,7 +13027,7 @@
         <v>71</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>81</v>
@@ -13040,7 +13042,7 @@
         <v>93</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>71</v>
@@ -13049,9 +13051,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13074,13 +13076,13 @@
         <v>82</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13131,7 +13133,7 @@
         <v>71</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>72</v>
@@ -13146,7 +13148,7 @@
         <v>93</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>71</v>
@@ -13155,9 +13157,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13183,10 +13185,10 @@
         <v>71</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13237,7 +13239,7 @@
         <v>71</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>72</v>
@@ -13252,7 +13254,7 @@
         <v>93</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>71</v>
@@ -13262,24 +13264,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL107">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,23 +456,7 @@
     <t>A unique identifier for this package as whole. Unique instance identifiers assigned to a package by manufacturers, regulators, drug catalogue custodians or other organizations.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Packaged Medicinal Product.PCID</t>
-  </si>
-  <si>
-    <t>spor</t>
-  </si>
-  <si>
-    <t>SPOR (Europe)</t>
-  </si>
-  <si>
-    <t>EMA - SPOR product identifier</t>
   </si>
   <si>
     <t>PackagedProductDefinition.identifier.id</t>
@@ -507,6 +491,9 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -523,9 +510,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
   </si>
   <si>
     <t>required</t>
@@ -583,12 +567,12 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/pmswi</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
+    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/packagedProductIdSystems</t>
+  </si>
+  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -598,7 +582,7 @@
     <t>PackagedProductDefinition.identifier.value</t>
   </si>
   <si>
-    <t>EMA Package Product ID</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -678,6 +662,15 @@
     <t>A high level category e.g. medicinal product, raw material, shipping/transport container, etc.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://spor.ema.europa.eu/rmswi"/&gt;
+    &lt;code value="100000155527"/&gt;
+    &lt;display value="Chemical Medicinal Product"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -685,170 +678,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/package-type</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>EMA - SPOR Referential</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.type.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packageFor</t>
@@ -951,9 +780,6 @@
 </t>
   </si>
   <si>
-    <t>The legal status of supply of the packaged item as classified by the regulator</t>
-  </si>
-  <si>
     <t>The legal status of supply of the packaged item as classified by the regulator.</t>
   </si>
   <si>
@@ -1044,6 +870,10 @@
     <t>PackagedProductDefinition.copackagedIndicator</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>If the drug product is supplied with another item such as a diluent</t>
   </si>
   <si>
@@ -1148,43 +978,19 @@
     <t>The physical type of the container of the items.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://spor.ema.europa.eu/rmswi"/&gt;
+    &lt;code value="100000073543"/&gt;
+    &lt;display value="Pre-filled pen"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/packaging-type</t>
   </si>
   <si>
     <t>Package Item (Container).Package Item (Container) Type</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.system</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.type.text</t>
   </si>
   <si>
     <t>PackagedProductDefinition.package.quantity</t>
@@ -1215,6 +1021,15 @@
     <t>Material type of the package item.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://spor.ema.europa.eu/rmswi"/&gt;
+    &lt;code value="200000003204"/&gt;
+    &lt;display value="Glass type I"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>A material used in the construction of packages and their components.</t>
   </si>
   <si>
@@ -1222,39 +1037,6 @@
   </si>
   <si>
     <t>Package Item (Container).Material</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.id</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.extension</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.system</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.version</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.code</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.display</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.coding.userSelected</t>
-  </si>
-  <si>
-    <t>PackagedProductDefinition.package.material.text</t>
   </si>
   <si>
     <t>PackagedProductDefinition.package.alternateMaterial</t>
@@ -1276,6 +1058,9 @@
 </t>
   </si>
   <si>
+    <t>Shelf Life and storage information</t>
+  </si>
+  <si>
     <t>Shelf Life and storage information.</t>
   </si>
   <si>
@@ -1401,7 +1186,7 @@
     <t>PackagedProductDefinition.package.package</t>
   </si>
   <si>
-    <t>Allows containers (and parts of containers) within containers, still a single packaged product</t>
+    <t>Allows containers (and parts of containers) within containers, still a single packaged product.</t>
   </si>
   <si>
     <t>Allows containers (and parts of containers) parwithin containers, still a single packaged product.  See also PackagedProductDefinition.package.containedItem.item(PackagedProductDefinition).</t>
@@ -1702,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL107"/>
+  <dimension ref="A1:AL69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1735,7 +1520,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.09375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.5" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -2907,14 +2692,16 @@
         <v>71</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>138</v>
@@ -2932,7 +2719,7 @@
         <v>93</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>71</v>
@@ -2943,11 +2730,9 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>71</v>
       </c>
@@ -2956,7 +2741,7 @@
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -2965,16 +2750,16 @@
         <v>71</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3025,44 +2810,44 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -3074,15 +2859,17 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>71</v>
@@ -3119,31 +2906,31 @@
         <v>71</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>71</v>
@@ -3152,46 +2939,48 @@
         <v>71</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>71</v>
       </c>
@@ -3215,43 +3004,41 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>71</v>
@@ -3260,12 +3047,12 @@
         <v>71</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3282,25 +3069,25 @@
         <v>71</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>71</v>
@@ -3310,7 +3097,7 @@
         <v>71</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>71</v>
@@ -3325,11 +3112,11 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -3347,7 +3134,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -3368,12 +3155,12 @@
         <v>71</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3381,7 +3168,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>81</v>
@@ -3396,19 +3183,19 @@
         <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>71</v>
@@ -3421,7 +3208,7 @@
         <v>71</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>71</v>
@@ -3433,11 +3220,11 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>71</v>
@@ -3455,7 +3242,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3476,12 +3263,12 @@
         <v>71</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3504,20 +3291,18 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>71</v>
       </c>
@@ -3526,10 +3311,10 @@
         <v>71</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>71</v>
@@ -3565,7 +3350,7 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3586,12 +3371,12 @@
         <v>71</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3614,17 +3399,15 @@
         <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -3637,7 +3420,7 @@
         <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>71</v>
@@ -3673,7 +3456,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3694,12 +3477,12 @@
         <v>71</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3722,15 +3505,17 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>71</v>
@@ -3779,7 +3564,7 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3800,12 +3585,12 @@
         <v>71</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3828,17 +3613,15 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
         <v>204</v>
       </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>71</v>
@@ -3851,7 +3634,7 @@
         <v>71</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>71</v>
+        <v>205</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>71</v>
@@ -3887,7 +3670,7 @@
         <v>71</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>72</v>
@@ -3902,18 +3685,18 @@
         <v>93</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3936,13 +3719,13 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3957,25 +3740,25 @@
         <v>71</v>
       </c>
       <c r="S21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>71</v>
-      </c>
       <c r="X21" t="s" s="2">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -3993,7 +3776,7 @@
         <v>71</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -4008,7 +3791,7 @@
         <v>93</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>71</v>
@@ -4019,7 +3802,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4030,7 +3813,7 @@
         <v>72</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>71</v>
@@ -4042,13 +3825,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4075,13 +3858,13 @@
         <v>71</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>216</v>
+        <v>71</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>71</v>
@@ -4099,13 +3882,13 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>71</v>
@@ -4114,7 +3897,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
@@ -4125,7 +3908,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4142,19 +3925,19 @@
         <v>71</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4169,7 +3952,7 @@
         <v>71</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>71</v>
@@ -4181,13 +3964,13 @@
         <v>71</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>71</v>
@@ -4205,7 +3988,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -4217,32 +4000,32 @@
         <v>71</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>71</v>
@@ -4251,20 +4034,18 @@
         <v>71</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>128</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>71</v>
@@ -4277,7 +4058,7 @@
         <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>71</v>
+        <v>228</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>71</v>
@@ -4301,45 +4082,45 @@
         <v>71</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4362,20 +4143,16 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>71</v>
       </c>
@@ -4387,7 +4164,7 @@
         <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>71</v>
+        <v>233</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>71</v>
@@ -4411,17 +4188,19 @@
         <v>71</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4436,22 +4215,20 @@
         <v>93</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>226</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>71</v>
       </c>
@@ -4460,7 +4237,7 @@
         <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>71</v>
@@ -4472,20 +4249,16 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>71</v>
       </c>
@@ -4497,7 +4270,7 @@
         <v>71</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>71</v>
@@ -4533,13 +4306,13 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>71</v>
@@ -4548,18 +4321,18 @@
         <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>226</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4570,7 +4343,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>71</v>
@@ -4579,16 +4352,16 @@
         <v>71</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>150</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4639,44 +4412,44 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>71</v>
@@ -4688,17 +4461,15 @@
         <v>71</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>71</v>
@@ -4735,31 +4506,31 @@
         <v>71</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="AC28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>71</v>
@@ -4768,23 +4539,23 @@
         <v>71</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>71</v>
@@ -4793,23 +4564,21 @@
         <v>71</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>71</v>
       </c>
@@ -4818,7 +4587,7 @@
         <v>71</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>71</v>
@@ -4857,19 +4626,19 @@
         <v>71</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>154</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>71</v>
@@ -4878,46 +4647,48 @@
         <v>71</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>71</v>
       </c>
@@ -4965,19 +4736,19 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>71</v>
@@ -4986,12 +4757,12 @@
         <v>71</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>243</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4999,7 +4770,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>81</v>
@@ -5014,18 +4785,16 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>71</v>
       </c>
@@ -5049,13 +4818,13 @@
         <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>71</v>
@@ -5073,7 +4842,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -5088,18 +4857,18 @@
         <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>71</v>
+        <v>243</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>249</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5122,18 +4891,16 @@
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>71</v>
       </c>
@@ -5157,13 +4924,13 @@
         <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>71</v>
+        <v>260</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>71</v>
@@ -5181,7 +4948,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -5196,18 +4963,18 @@
         <v>93</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>255</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5218,7 +4985,7 @@
         <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>71</v>
@@ -5230,20 +4997,16 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>71</v>
       </c>
@@ -5291,13 +5054,13 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>71</v>
@@ -5306,18 +5069,18 @@
         <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>263</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5328,7 +5091,7 @@
         <v>72</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>71</v>
@@ -5340,20 +5103,16 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M34" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>268</v>
-      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>71</v>
       </c>
@@ -5377,13 +5136,13 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>71</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -5401,13 +5160,13 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>71</v>
@@ -5416,18 +5175,18 @@
         <v>93</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5438,7 +5197,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>71</v>
@@ -5450,20 +5209,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="Q35" t="s" s="2">
         <v>71</v>
       </c>
@@ -5507,13 +5268,13 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>71</v>
@@ -5522,7 +5283,7 @@
         <v>93</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>71</v>
@@ -5533,7 +5294,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5544,19 +5305,19 @@
         <v>72</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>170</v>
+        <v>276</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>277</v>
@@ -5577,7 +5338,7 @@
         <v>71</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>71</v>
@@ -5589,13 +5350,13 @@
         <v>71</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>281</v>
+        <v>71</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>71</v>
@@ -5613,13 +5374,13 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>71</v>
@@ -5628,7 +5389,7 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>153</v>
+        <v>279</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
@@ -5639,7 +5400,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5650,7 +5411,7 @@
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>71</v>
@@ -5662,13 +5423,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5683,7 +5444,7 @@
         <v>71</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>71</v>
@@ -5719,13 +5480,13 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>71</v>
@@ -5734,7 +5495,7 @@
         <v>93</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>71</v>
@@ -5745,7 +5506,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5756,7 +5517,7 @@
         <v>72</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>71</v>
@@ -5768,13 +5529,13 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5789,7 +5550,7 @@
         <v>71</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>291</v>
+        <v>71</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>71</v>
@@ -5825,13 +5586,13 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>71</v>
@@ -5840,7 +5601,7 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>153</v>
+        <v>287</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5851,7 +5612,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5871,16 +5632,16 @@
         <v>71</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>294</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5895,7 +5656,7 @@
         <v>71</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>296</v>
+        <v>71</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>71</v>
@@ -5931,7 +5692,7 @@
         <v>71</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>147</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5943,25 +5704,25 @@
         <v>71</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5977,18 +5738,20 @@
         <v>71</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>71</v>
@@ -6037,7 +5800,7 @@
         <v>71</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -6049,53 +5812,57 @@
         <v>71</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>71</v>
       </c>
@@ -6143,19 +5910,19 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>71</v>
@@ -6164,20 +5931,20 @@
         <v>71</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>73</v>
@@ -6189,20 +5956,18 @@
         <v>71</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>71</v>
@@ -6251,7 +6016,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>158</v>
+        <v>291</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -6263,57 +6028,53 @@
         <v>71</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>306</v>
+        <v>71</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>71</v>
       </c>
@@ -6361,19 +6122,19 @@
         <v>71</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>309</v>
+        <v>147</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>71</v>
@@ -6382,23 +6143,23 @@
         <v>71</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>71</v>
@@ -6407,18 +6168,20 @@
         <v>71</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>311</v>
+        <v>128</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>71</v>
@@ -6443,57 +6206,57 @@
         <v>71</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>313</v>
+        <v>71</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>314</v>
+        <v>71</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>310</v>
+        <v>154</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>302</v>
+        <v>71</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6510,22 +6273,26 @@
         <v>71</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>71</v>
       </c>
@@ -6549,13 +6316,11 @@
         <v>71</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="X45" s="2"/>
       <c r="Y45" t="s" s="2">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>71</v>
@@ -6573,7 +6338,7 @@
         <v>71</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>315</v>
+        <v>162</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>72</v>
@@ -6588,18 +6353,18 @@
         <v>93</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6610,7 +6375,7 @@
         <v>72</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>71</v>
@@ -6622,16 +6387,20 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>321</v>
+        <v>165</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>71</v>
       </c>
@@ -6655,13 +6424,11 @@
         <v>71</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
-        <v>71</v>
+        <v>171</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>71</v>
@@ -6679,13 +6446,13 @@
         <v>71</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>71</v>
@@ -6694,18 +6461,18 @@
         <v>93</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>323</v>
+        <v>71</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>71</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6713,10 +6480,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>71</v>
@@ -6728,16 +6495,20 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>325</v>
+        <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>71</v>
       </c>
@@ -6749,7 +6520,7 @@
         <v>71</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>71</v>
@@ -6761,13 +6532,11 @@
         <v>71</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>328</v>
+        <v>179</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>71</v>
@@ -6785,13 +6554,13 @@
         <v>71</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>71</v>
@@ -6800,18 +6569,18 @@
         <v>93</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>71</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6819,7 +6588,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>81</v>
@@ -6834,22 +6603,22 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>257</v>
+        <v>144</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>183</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P48" t="s" s="2">
-        <v>332</v>
-      </c>
+      <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
         <v>71</v>
       </c>
@@ -6857,7 +6626,7 @@
         <v>71</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>71</v>
@@ -6893,7 +6662,7 @@
         <v>71</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>329</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6908,18 +6677,18 @@
         <v>93</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>71</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6930,7 +6699,7 @@
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>71</v>
@@ -6942,13 +6711,13 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>334</v>
+        <v>190</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>335</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>336</v>
+        <v>192</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6999,13 +6768,13 @@
         <v>71</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>71</v>
@@ -7014,18 +6783,18 @@
         <v>93</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>337</v>
+        <v>71</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>71</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7036,7 +6805,7 @@
         <v>72</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>71</v>
@@ -7048,15 +6817,17 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>71</v>
@@ -7105,13 +6876,13 @@
         <v>71</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>338</v>
+        <v>200</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>71</v>
@@ -7120,18 +6891,18 @@
         <v>93</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>71</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7154,13 +6925,13 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7175,7 +6946,7 @@
         <v>71</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>71</v>
+        <v>306</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>71</v>
@@ -7187,13 +6958,13 @@
         <v>71</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>71</v>
+        <v>211</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>71</v>
@@ -7211,7 +6982,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -7226,7 +6997,7 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>71</v>
@@ -7237,7 +7008,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7257,16 +7028,16 @@
         <v>71</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7281,7 +7052,7 @@
         <v>71</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>71</v>
@@ -7317,7 +7088,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>152</v>
+        <v>309</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7329,25 +7100,25 @@
         <v>71</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>71</v>
+        <v>314</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7363,20 +7134,18 @@
         <v>71</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>128</v>
+        <v>316</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>71</v>
@@ -7389,7 +7158,7 @@
         <v>71</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>71</v>
+        <v>318</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>71</v>
@@ -7401,13 +7170,13 @@
         <v>71</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>71</v>
@@ -7425,7 +7194,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>158</v>
+        <v>315</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7437,25 +7206,25 @@
         <v>71</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>71</v>
+        <v>321</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>306</v>
+        <v>71</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7468,26 +7237,22 @@
         <v>71</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>71</v>
       </c>
@@ -7511,13 +7276,13 @@
         <v>71</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>71</v>
+        <v>319</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>71</v>
+        <v>320</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>71</v>
@@ -7535,7 +7300,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7547,21 +7312,21 @@
         <v>71</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>124</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7569,7 +7334,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>73</v>
@@ -7584,13 +7349,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7629,17 +7394,19 @@
         <v>71</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB55" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC55" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7654,7 +7421,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>71</v>
@@ -7665,11 +7432,9 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>71</v>
       </c>
@@ -7690,13 +7455,13 @@
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7747,7 +7512,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7762,7 +7527,7 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>71</v>
@@ -7773,7 +7538,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7784,7 +7549,7 @@
         <v>72</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>71</v>
@@ -7793,16 +7558,16 @@
         <v>71</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7853,44 +7618,44 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>71</v>
+        <v>338</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>71</v>
@@ -7902,17 +7667,15 @@
         <v>71</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>71</v>
@@ -7949,31 +7712,31 @@
         <v>71</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>71</v>
@@ -7982,48 +7745,46 @@
         <v>71</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>71</v>
       </c>
@@ -8032,7 +7793,7 @@
         <v>71</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>71</v>
@@ -8047,11 +7808,13 @@
         <v>71</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="X59" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>71</v>
@@ -8069,19 +7832,19 @@
         <v>71</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>71</v>
@@ -8090,47 +7853,47 @@
         <v>71</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>71</v>
@@ -8155,11 +7918,13 @@
         <v>71</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>71</v>
@@ -8177,19 +7942,19 @@
         <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>71</v>
@@ -8198,12 +7963,12 @@
         <v>71</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8226,20 +7991,16 @@
         <v>82</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>71</v>
       </c>
@@ -8248,10 +8009,10 @@
         <v>71</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>184</v>
+        <v>71</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>71</v>
@@ -8263,13 +8024,13 @@
         <v>71</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>71</v>
@@ -8287,10 +8048,10 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>185</v>
+        <v>342</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -8302,18 +8063,18 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>71</v>
+        <v>347</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>186</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8336,17 +8097,15 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>149</v>
+        <v>349</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>188</v>
+        <v>350</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>71</v>
@@ -8359,7 +8118,7 @@
         <v>71</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="T62" t="s" s="2">
         <v>71</v>
@@ -8395,7 +8154,7 @@
         <v>71</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -8410,18 +8169,18 @@
         <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>71</v>
+        <v>352</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>193</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8432,7 +8191,7 @@
         <v>72</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>71</v>
@@ -8444,13 +8203,13 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>196</v>
+        <v>354</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>197</v>
+        <v>355</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8501,13 +8260,13 @@
         <v>71</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>71</v>
@@ -8516,18 +8275,18 @@
         <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>71</v>
+        <v>356</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>199</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8547,20 +8306,18 @@
         <v>71</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>71</v>
@@ -8609,7 +8366,7 @@
         <v>71</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -8621,7 +8378,7 @@
         <v>71</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>71</v>
@@ -8630,23 +8387,23 @@
         <v>71</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>206</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>71</v>
@@ -8655,18 +8412,20 @@
         <v>71</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>362</v>
+        <v>128</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>71</v>
@@ -8691,13 +8450,13 @@
         <v>71</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>215</v>
+        <v>71</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>364</v>
+        <v>71</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>71</v>
@@ -8715,65 +8474,69 @@
         <v>71</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>361</v>
+        <v>154</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>365</v>
+        <v>71</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>71</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>71</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>71</v>
       </c>
@@ -8821,19 +8584,19 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>71</v>
@@ -8842,23 +8605,23 @@
         <v>71</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>71</v>
@@ -8867,20 +8630,18 @@
         <v>71</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>127</v>
+        <v>361</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>128</v>
+        <v>362</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>71</v>
@@ -8917,45 +8678,45 @@
         <v>71</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>158</v>
+        <v>360</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>71</v>
+        <v>364</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>153</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8966,7 +8727,7 @@
         <v>72</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>71</v>
@@ -8978,20 +8739,16 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>221</v>
+        <v>366</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>71</v>
       </c>
@@ -9027,23 +8784,25 @@
         <v>71</v>
       </c>
       <c r="AA68" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB68" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="AC68" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD68" t="s" s="2">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>71</v>
@@ -9052,22 +8811,20 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>71</v>
+        <v>368</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>226</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
         <v>71</v>
       </c>
@@ -9088,20 +8845,16 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>146</v>
+        <v>370</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>71</v>
       </c>
@@ -9149,7 +8902,7 @@
         <v>71</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>225</v>
+        <v>369</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>72</v>
@@ -9164,4102 +8917,12 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>71</v>
+        <v>372</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AB82" s="2"/>
-      <c r="AC82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AL107" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -450,10 +450,10 @@
 </t>
   </si>
   <si>
-    <t>A unique identifier for this package as whole</t>
-  </si>
-  <si>
-    <t>A unique identifier for this package as whole. Unique instance identifiers assigned to a package by manufacturers, regulators, drug catalogue custodians or other organizations.</t>
+    <t>Unique identifier</t>
+  </si>
+  <si>
+    <t>Unique identifier.</t>
   </si>
   <si>
     <t>Packaged Medicinal Product.PCID</t>
@@ -515,7 +515,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -644,7 +644,7 @@
     <t>PackagedProductDefinition.name</t>
   </si>
   <si>
-    <t>A name for this package. Typically as listed in a drug formulary, catalogue, inventory etc</t>
+    <t>A name for this package. Typically what it would be listed as in a drug formulary or catalogue, inventory etc</t>
   </si>
   <si>
     <t>A name for this package. Typically what it would be listed as in a drug formulary or catalogue, inventory etc.</t>
@@ -656,7 +656,7 @@
     <t>PackagedProductDefinition.type</t>
   </si>
   <si>
-    <t>A high level category e.g. medicinal product, raw material, shipping container etc</t>
+    <t>A high level category e.g. medicinal product, raw material, shipping/transport container, etc</t>
   </si>
   <si>
     <t>A high level category e.g. medicinal product, raw material, shipping/transport container, etc.</t>
@@ -671,15 +671,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A high level categorisation of a package.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/package-type</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
@@ -699,7 +690,7 @@
     <t>PackagedProductDefinition.status</t>
   </si>
   <si>
-    <t>The status within the lifecycle of this item. High level - not intended to duplicate details elsewhere e.g. legal status, or authorization/marketing status</t>
+    <t>The status within the lifecycle of this item. A high level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization or marketing status</t>
   </si>
   <si>
     <t>The status within the lifecycle of this item. A high level status, this is not intended to duplicate details carried elsewhere such as legal status, or authorization or marketing status.</t>
@@ -713,7 +704,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>The lifecycle status of an artifact.</t>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/publication-status</t>
@@ -742,10 +733,10 @@
 </t>
   </si>
   <si>
-    <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size</t>
-  </si>
-  <si>
-    <t>A total of the complete count of contained items of a particular type/form, independent of sub-packaging or organization. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
+    <t>A total of the amount of items in the package, per item type. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource</t>
+  </si>
+  <si>
+    <t>A total of the amount of items in the package, per item type. This can be considered as the pack size. This attribute differs from containedItem.amount in that it can give a single aggregated count of all tablet types in a pack, even when these are different manufactured items. For example a pill pack of 21 tablets plus 7 sugar tablets, can be denoted here as '28 tablets'. This attribute is repeatable so that the different item types in one pack type can be counted (e.g. a count of vials and count of syringes). Each repeat must have different units, so that it is clear what the different sets of counted items are, and it is not intended to allow different counts of similar items (e.g. not '2 tubes and 3 tubes'). Repeats are not to be used to represent different pack sizes (e.g. 20 pack vs. 50 pack) - which would be different instances of this resource.</t>
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
@@ -815,28 +806,16 @@
     <t>The actual status of supply. In what situation this package type may be supplied for use</t>
   </si>
   <si>
-    <t>The actual status of supply. Conveys in what situation this package type may be supplied for use.</t>
-  </si>
-  <si>
-    <t>The prescription supply types appropriate to a medicinal product</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/legal-status-of-supply</t>
+    <t>The actual status of supply. In what situation this package type may be supplied for use.</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction</t>
   </si>
   <si>
-    <t>The place where the legal status of supply applies</t>
+    <t>The place where the legal status of supply applies. When not specified, this indicates it is unknown in this context</t>
   </si>
   <si>
     <t>The place where the legal status of supply applies. When not specified, this indicates it is unknown in this context.</t>
-  </si>
-  <si>
-    <t>Jurisdiction codes</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus</t>
@@ -849,22 +828,19 @@
     <t>Allows specifying that an item is on the market for sale, or that it is not available, and the dates and locations associated.</t>
   </si>
   <si>
+    <t>Marketing information.</t>
+  </si>
+  <si>
     <t>Packaged Medicinal Product.Marketing Status</t>
   </si>
   <si>
     <t>PackagedProductDefinition.characteristic</t>
   </si>
   <si>
-    <t>Allows the key features to be recorded, such as "hospital pack", "nurse prescribable"</t>
+    <t>Allows the key features to be recorded, such as "hospital pack", "nurse prescribable", "calendar pack"</t>
   </si>
   <si>
     <t>Allows the key features to be recorded, such as "hospital pack", "nurse prescribable", "calendar pack".</t>
-  </si>
-  <si>
-    <t>A characteristic of a package.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/package-characteristic</t>
   </si>
   <si>
     <t>PackagedProductDefinition.copackagedIndicator</t>
@@ -880,9 +856,6 @@
     <t>States whether a drug product is supplied with another item such as a diluent or adjuvant.</t>
   </si>
   <si>
-    <t>If this value is not present, there is no statement being made about whether this is co-packaged or not. No inference can be made</t>
-  </si>
-  <si>
     <t>PackagedProductDefinition.manufacturer</t>
   </si>
   <si>
@@ -890,7 +863,7 @@
 </t>
   </si>
   <si>
-    <t>Manufacturer of this package type (multiple means these are all possible manufacturers)</t>
+    <t>Manufacturer of this package type. When there are multiple it means these are all possible manufacturers</t>
   </si>
   <si>
     <t>Manufacturer of this package type. When there are multiple it means these are all possible manufacturers.</t>
@@ -915,7 +888,7 @@
     <t>PackagedProductDefinition.package</t>
   </si>
   <si>
-    <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap</t>
+    <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap (which is not a device or a medication manufactured item)</t>
   </si>
   <si>
     <t>A packaging item, as a container for medically related items, possibly with other packaging items within, or a packaging component, such as bottle cap (which is not a device or a medication manufactured item).</t>
@@ -936,10 +909,10 @@
     <t>PackagedProductDefinition.package.identifier</t>
   </si>
   <si>
-    <t>An identifier that is specific to this particular part of the packaging. Including possibly a Data Carrier Identifier</t>
-  </si>
-  <si>
-    <t>An identifier that is specific to this particular part of the packaging. Including possibly Data Carrier Identifier (a GS1 barcode).</t>
+    <t>Including possibly Data Carrier Identifier</t>
+  </si>
+  <si>
+    <t>Including possibly Data Carrier Identifier.</t>
   </si>
   <si>
     <t>Package Item (Container).Data Carrier Identifier</t>
@@ -987,9 +960,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/packaging-type</t>
-  </si>
-  <si>
     <t>Package Item (Container).Package Item (Container) Type</t>
   </si>
   <si>
@@ -1000,7 +970,7 @@
 </t>
   </si>
   <si>
-    <t>The quantity of this level of packaging in the package that contains it (with the outermost level being 1)</t>
+    <t>The quantity of this level of packaging in the package that contains it. If specified, the outermost level is always 1</t>
   </si>
   <si>
     <t>The quantity of this level of packaging in the package that contains it. If specified, the outermost level is always 1.</t>
@@ -1030,22 +1000,16 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>A material used in the construction of packages and their components.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/package-material</t>
-  </si>
-  <si>
     <t>Package Item (Container).Material</t>
   </si>
   <si>
     <t>PackagedProductDefinition.package.alternateMaterial</t>
   </si>
   <si>
-    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material</t>
-  </si>
-  <si>
-    <t>A possible alternate material for this part of the packaging, that is allowed to be used instead of the usual material (e.g. different types of plastic for a blister sleeve).</t>
+    <t>A possible alternate material for the packaging</t>
+  </si>
+  <si>
+    <t>A possible alternate material for the packaging.</t>
   </si>
   <si>
     <t>Package Item (Container).Alternate Material</t>
@@ -1070,7 +1034,7 @@
     <t>PackagedProductDefinition.package.manufacturer</t>
   </si>
   <si>
-    <t>Manufacturer of this package Item (multiple means these are all possible manufacturers)</t>
+    <t>Manufacturer of this package Item. When there are multiple it means these are all possible manufacturers</t>
   </si>
   <si>
     <t>Manufacturer of this package Item. When there are multiple it means these are all possible manufacturers.</t>
@@ -1107,12 +1071,6 @@
   </si>
   <si>
     <t>A code expressing the type of characteristic.</t>
-  </si>
-  <si>
-    <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
   </si>
   <si>
     <t>Physical Characteristics, all attributes</t>
@@ -1162,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t>The actual item(s) of medication, as manufactured, or a device, or other medically related item (food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package</t>
+    <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.package.package)</t>
   </si>
   <si>
     <t>The actual item(s) of medication, as manufactured, or a device (typically, but not necessarily, a co-packaged one), or other medically related item (such as food, biologicals, raw materials, medical fluids, gases etc.), as contained in the package. This also allows another whole packaged product to be included, which is solely for the case where a package of other entire packages is wanted - such as a wholesale or distribution pack (for layers within one package, use PackagedProductDefinition.package.package).</t>
@@ -1506,7 +1464,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="171.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1519,7 +1477,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.09375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="68.734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -3752,13 +3710,13 @@
         <v>71</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>71</v>
@@ -3802,7 +3760,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3825,13 +3783,13 @@
         <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3882,7 +3840,7 @@
         <v>71</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -3897,7 +3855,7 @@
         <v>93</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>71</v>
@@ -3908,7 +3866,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3934,10 +3892,10 @@
         <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3952,7 +3910,7 @@
         <v>71</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>71</v>
@@ -3967,10 +3925,10 @@
         <v>105</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>71</v>
@@ -3988,7 +3946,7 @@
         <v>71</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -4014,7 +3972,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4037,13 +3995,13 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4058,7 +4016,7 @@
         <v>71</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>71</v>
@@ -4094,7 +4052,7 @@
         <v>71</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -4120,7 +4078,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4143,13 +4101,13 @@
         <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4164,7 +4122,7 @@
         <v>71</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>71</v>
@@ -4200,7 +4158,7 @@
         <v>71</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4226,7 +4184,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4249,13 +4207,13 @@
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4270,7 +4228,7 @@
         <v>71</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>71</v>
@@ -4306,7 +4264,7 @@
         <v>71</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4321,7 +4279,7 @@
         <v>93</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>71</v>
@@ -4332,7 +4290,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4355,13 +4313,13 @@
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4412,7 +4370,7 @@
         <v>71</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4427,7 +4385,7 @@
         <v>93</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>71</v>
@@ -4438,7 +4396,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4544,7 +4502,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4652,11 +4610,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4678,10 +4636,10 @@
         <v>127</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>130</v>
@@ -4736,7 +4694,7 @@
         <v>71</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4762,7 +4720,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4788,10 +4746,10 @@
         <v>165</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4818,13 +4776,13 @@
         <v>71</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>71</v>
@@ -4842,7 +4800,7 @@
         <v>71</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>72</v>
@@ -4857,7 +4815,7 @@
         <v>93</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>71</v>
@@ -4868,7 +4826,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4894,10 +4852,10 @@
         <v>165</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4924,13 +4882,13 @@
         <v>71</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>259</v>
+        <v>71</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>260</v>
+        <v>71</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>71</v>
@@ -4948,7 +4906,7 @@
         <v>71</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4974,7 +4932,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4997,13 +4955,13 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5054,7 +5012,7 @@
         <v>71</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5069,7 +5027,7 @@
         <v>93</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>71</v>
@@ -5080,7 +5038,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5106,10 +5064,10 @@
         <v>165</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5136,13 +5094,13 @@
         <v>71</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>268</v>
+        <v>71</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>269</v>
+        <v>71</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>71</v>
@@ -5160,7 +5118,7 @@
         <v>71</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5186,7 +5144,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5209,22 +5167,20 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="P35" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>71</v>
       </c>
@@ -5268,7 +5224,7 @@
         <v>71</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>72</v>
@@ -5294,7 +5250,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5317,13 +5273,13 @@
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5374,7 +5330,7 @@
         <v>71</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5389,7 +5345,7 @@
         <v>93</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>71</v>
@@ -5400,7 +5356,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5423,13 +5379,13 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5480,7 +5436,7 @@
         <v>71</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5506,7 +5462,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5529,13 +5485,13 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5586,7 +5542,7 @@
         <v>71</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>72</v>
@@ -5601,7 +5557,7 @@
         <v>93</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>71</v>
@@ -5612,7 +5568,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5718,7 +5674,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5826,11 +5782,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5852,10 +5808,10 @@
         <v>127</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>130</v>
@@ -5910,7 +5866,7 @@
         <v>71</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5936,7 +5892,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5962,10 +5918,10 @@
         <v>139</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6016,7 +5972,7 @@
         <v>71</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -6031,7 +5987,7 @@
         <v>93</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>71</v>
@@ -6042,7 +5998,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6148,7 +6104,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6256,7 +6212,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6364,7 +6320,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6472,7 +6428,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6580,7 +6536,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6688,7 +6644,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6794,7 +6750,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6902,7 +6858,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6928,10 +6884,10 @@
         <v>165</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6946,7 +6902,7 @@
         <v>71</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>71</v>
@@ -6958,13 +6914,13 @@
         <v>71</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>71</v>
@@ -6982,7 +6938,7 @@
         <v>71</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -6997,7 +6953,7 @@
         <v>93</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>71</v>
@@ -7008,7 +6964,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7031,13 +6987,13 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7052,7 +7008,7 @@
         <v>71</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>71</v>
@@ -7088,7 +7044,7 @@
         <v>71</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>72</v>
@@ -7103,7 +7059,7 @@
         <v>93</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>71</v>
@@ -7114,7 +7070,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7140,10 +7096,10 @@
         <v>165</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7158,7 +7114,7 @@
         <v>71</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>71</v>
@@ -7170,13 +7126,13 @@
         <v>71</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>71</v>
@@ -7194,7 +7150,7 @@
         <v>71</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7209,7 +7165,7 @@
         <v>93</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>71</v>
@@ -7220,7 +7176,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7246,10 +7202,10 @@
         <v>165</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7276,13 +7232,13 @@
         <v>71</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>319</v>
+        <v>71</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>320</v>
+        <v>71</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>71</v>
@@ -7300,7 +7256,7 @@
         <v>71</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7315,7 +7271,7 @@
         <v>93</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>71</v>
@@ -7326,7 +7282,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7349,13 +7305,13 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7406,7 +7362,7 @@
         <v>71</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7421,7 +7377,7 @@
         <v>93</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>71</v>
@@ -7432,7 +7388,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7458,10 +7414,10 @@
         <v>196</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7512,7 +7468,7 @@
         <v>71</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7527,7 +7483,7 @@
         <v>93</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>71</v>
@@ -7538,7 +7494,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7561,13 +7517,13 @@
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7618,7 +7574,7 @@
         <v>71</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
@@ -7633,7 +7589,7 @@
         <v>93</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>71</v>
@@ -7644,7 +7600,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7750,7 +7706,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7858,11 +7814,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7884,10 +7840,10 @@
         <v>127</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>130</v>
@@ -7942,7 +7898,7 @@
         <v>71</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
@@ -7968,7 +7924,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7994,10 +7950,10 @@
         <v>165</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8024,13 +7980,13 @@
         <v>71</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>345</v>
+        <v>71</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>71</v>
@@ -8048,7 +8004,7 @@
         <v>71</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>81</v>
@@ -8063,7 +8019,7 @@
         <v>93</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>71</v>
@@ -8074,7 +8030,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8097,13 +8053,13 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8154,7 +8110,7 @@
         <v>71</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -8169,7 +8125,7 @@
         <v>93</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>71</v>
@@ -8180,7 +8136,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8203,13 +8159,13 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8260,7 +8216,7 @@
         <v>71</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
@@ -8275,7 +8231,7 @@
         <v>93</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>71</v>
@@ -8286,7 +8242,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8392,7 +8348,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8500,11 +8456,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8526,10 +8482,10 @@
         <v>127</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>130</v>
@@ -8584,7 +8540,7 @@
         <v>71</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>72</v>
@@ -8610,7 +8566,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8633,13 +8589,13 @@
         <v>82</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8690,7 +8646,7 @@
         <v>71</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>81</v>
@@ -8705,7 +8661,7 @@
         <v>93</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>71</v>
@@ -8716,7 +8672,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8739,13 +8695,13 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8796,7 +8752,7 @@
         <v>71</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
@@ -8811,7 +8767,7 @@
         <v>93</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>71</v>
@@ -8822,7 +8778,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8848,10 +8804,10 @@
         <v>71</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8902,7 +8858,7 @@
         <v>71</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>72</v>
@@ -8917,7 +8873,7 @@
         <v>93</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>71</v>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1454,42 +1454,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.2421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="68.734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="68.73828125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="68.64453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="55.6953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="96.3984375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="96.40234375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/PackagedProductDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/PackagedProductDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,7 +570,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/packagedProductIdSystems</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/ValueSet/packagedProductIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -674,7 +674,7 @@
     <t>PackagedProductDefinition.packageFor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -859,7 +859,7 @@
     <t>PackagedProductDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Organization-uv-epi)
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
     <t>PackagedProductDefinition.package.containedItem.item</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableReference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi|DeviceDefinition|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/PackagedProductDefinition-uv-epi|BiologicallyDerivedProduct|NutritionProduct)
+    <t xml:space="preserve">CodeableReference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ManufacturedItemDefinition-uv-epi|DeviceDefinition|http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/PackagedProductDefinition-uv-epi|BiologicallyDerivedProduct|NutritionProduct)
 </t>
   </si>
   <si>
@@ -1478,7 +1478,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="68.73828125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-PackagedProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
